--- a/biology/Botanique/Artemisia_insipida/Artemisia_insipida.xlsx
+++ b/biology/Botanique/Artemisia_insipida/Artemisia_insipida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Armoise insipide (Artemisia insipida) est une espèce de plantes herbacées du genre Artemisia, les armoises.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante, sans odeur prononcée et sans saveur spéciale, mesure de 30 à 40 cm.
 Elle est entièrement blanche et soyeuse, et les capitules à fleurs jaunâtres et surtout apparents par leurs involucres verdâtres et poilus, se développent en juillet et août.
@@ -546,7 +560,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Artemisia insipida fut découverte en France dans l'été 1773 par Dominique Chaix (1730-1799), botaniste et curé des Baux, sur une petite montagne au nord-ouest de Gap. Mais c'est Dominique Villars (1745-1814), un ami médecin et botaniste, qui fera la description de l'espèce en 1779.
 Depuis 1773, de nombreux botanistes sont venus rechercher la plante, mais sans succès. Elle a longtemps été considérée comme une espèce éteinte en France. Au début de l'été 2006, la plante a été retrouvée par Luc Garraud, sur un espace de 2 m2. Poussant en lisière d'une chênaie très embroussaillée, la plante, très stolonifère, se perd vite dans les sous-bois, où, faute de lumière, elle ne fleurit pas.
@@ -578,7 +594,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante des steppes continentales dont la répartition morcelée va du sud de l'Europe à la Sibérie. C'est une espèce tardiglacière et relictuelle dont l'optimum des populations est centré sur la région pontico-sarmatique (Asie mineure).
 En France, on la trouve uniquement au Devès de Rabou, une basse montagne orientée nord-sud, adossée à l'ubac de la montagne de Charance. L'histoire du Devès de Rabou (géologique, climatique...) fait de cette montagne un site dont la végétation est très originale.
@@ -610,7 +628,9 @@
           <t>Statut de l'espèce</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Protection nationale en France, annexe 1
 Livre rouge national en France, tome 1
